--- a/ProcessedData/conf_rbf_SVM_early_fusion_1.xlsx
+++ b/ProcessedData/conf_rbf_SVM_early_fusion_1.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3791112233040145</v>
+        <v>0.382803715794908</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.002728301021464277</v>
+        <v>0.2307820460145626</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4021734355148736</v>
+        <v>0.3864142381905294</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6758245134477395</v>
+        <v>0.6947526551061176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5630841088766372</v>
+        <v>0.1556292363750857</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1046418928352376</v>
+        <v>0.1496181085187966</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5821082141069307</v>
+        <v>0.6916001745833907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6642771779780148</v>
+        <v>0.1856229953182622</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1851463283375148</v>
+        <v>0.122776830098347</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06220126971351642</v>
+        <v>0.2822988912185718</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.08761137431085604</v>
+        <v>0.3285463396057769</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1517180890928648</v>
+        <v>0.3891547691756512</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7558381501219508</v>
+        <v>0.7508195439743364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6817371177392709</v>
+        <v>0.1290213357623677</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3304685233015807</v>
+        <v>0.1201591202632961</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.144272766660946</v>
+        <v>0.8891392798249469</v>
       </c>
       <c r="C7" t="n">
-        <v>1.018371569558631</v>
+        <v>0.06430610633879554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4011933726287887</v>
+        <v>0.04655461383625766</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5557639398416798</v>
+        <v>0.1975619123098361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5354673267775384</v>
+        <v>0.6147756208175594</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7333445938850681</v>
+        <v>0.1876624668726043</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06281926029759143</v>
+        <v>0.2686851444581316</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1270888578313847</v>
+        <v>0.3264947040816677</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1835142633355949</v>
+        <v>0.4048201514602006</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.787066539970757</v>
+        <v>0.7229380928887875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5540049317094663</v>
+        <v>0.1175068226154694</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6264684305672605</v>
+        <v>0.159555084495743</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.976536733151771</v>
+        <v>0.8515618318050511</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9424080083751037</v>
+        <v>0.0844023953439397</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1786356942996806</v>
+        <v>0.06403577285100907</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0627915397072748</v>
+        <v>0.2824727481998294</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08748170858496697</v>
+        <v>0.3283654375095953</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1521368246068378</v>
+        <v>0.3891618142905753</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.550651441447803</v>
+        <v>0.5949890131906517</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3709813126928788</v>
+        <v>0.1783142309305694</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4440651314827739</v>
+        <v>0.2266967558787786</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06794759785765103</v>
+        <v>0.2087382331364839</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3240610948869329</v>
+        <v>0.3124596231620009</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3535932846095737</v>
+        <v>0.478802143701515</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1205860177455904</v>
+        <v>0.3154373528202394</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.03201412011517713</v>
+        <v>0.3126414002286305</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.158105965799259</v>
+        <v>0.3719212469511303</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5643714927062321</v>
+        <v>0.6524236029518415</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5265045534112721</v>
+        <v>0.1790334623862916</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3056746751858082</v>
+        <v>0.1685429346618669</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3867023698747876</v>
+        <v>0.6428673487203471</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9274569934387983</v>
+        <v>0.2794390782768576</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9525159794515522</v>
+        <v>0.07769357300279504</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4677704011059108</v>
+        <v>0.5683373937464263</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3707969428144727</v>
+        <v>0.2131974850656703</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1536163108109609</v>
+        <v>0.2184651211879035</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0637604973736443</v>
+        <v>0.277349335468082</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.102724190121325</v>
+        <v>0.3272151168260797</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.166272186819255</v>
+        <v>0.3954355477058382</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8436075976569366</v>
+        <v>0.8372874904964388</v>
       </c>
       <c r="C20" t="n">
-        <v>1.118436367636161</v>
+        <v>0.1231245620512945</v>
       </c>
       <c r="D20" t="n">
-        <v>1.114090504707182</v>
+        <v>0.03958794745226656</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3889124848666589</v>
+        <v>0.5039040127248782</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2648897147098011</v>
+        <v>0.2362042700952526</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1671674707906419</v>
+        <v>0.2598917171798691</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1462356642347155</v>
+        <v>0.3423679537781665</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02373828602720639</v>
+        <v>0.3053252050701385</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1577267292291538</v>
+        <v>0.352306841151695</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.203102743549402</v>
+        <v>0.3168914898936933</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4474748921026707</v>
+        <v>0.4781108362911315</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3978611552217021</v>
+        <v>0.2049976738151751</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1958194027007681</v>
+        <v>0.3068433759725455</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3912309711524168</v>
+        <v>0.4988689053261512</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7146866153222928</v>
+        <v>0.1942877187013035</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7149433553727607</v>
+        <v>0.8117734968574573</v>
       </c>
       <c r="C25" t="n">
-        <v>1.530067142613561</v>
+        <v>0.156447855520517</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9189301470247583</v>
+        <v>0.03177864762202569</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1217328779961665</v>
+        <v>0.3156529187645452</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.03164990126683045</v>
+        <v>0.3097821287862245</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1893963901939543</v>
+        <v>0.3745649524492303</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3550978094905232</v>
+        <v>0.5842939021242808</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5720739387918725</v>
+        <v>0.2672532327792568</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3178831758716928</v>
+        <v>0.1484528650964622</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3101863628623288</v>
+        <v>0.5780360068948365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6528626861167124</v>
+        <v>0.2920712040087909</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4802927191410512</v>
+        <v>0.1298927890963727</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5902430329628581</v>
+        <v>0.7346477834972557</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8956757569869507</v>
+        <v>0.1816660676479433</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1585765156151753</v>
+        <v>0.08368614885480127</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06513048317215731</v>
+        <v>0.2840263387232033</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.08450107054420403</v>
+        <v>0.3277792531328029</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.151729889654457</v>
+        <v>0.388194408143994</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6487824459029305</v>
+        <v>0.693768383445967</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5832939662992165</v>
+        <v>0.1596353638014232</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1882297323881087</v>
+        <v>0.1465962527526099</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1192209629640213</v>
+        <v>0.4560729933009133</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4377292359370764</v>
+        <v>0.3479120232090926</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2285189708786194</v>
+        <v>0.1960149834899943</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6157957768185888</v>
+        <v>0.6596205433615578</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4947292187305196</v>
+        <v>0.1602391410509769</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.4499919739281302</v>
+        <v>0.1801403155874651</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4679319722035084</v>
+        <v>0.6444184419544527</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6143602061385942</v>
+        <v>0.2072136548302956</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2332830588058112</v>
+        <v>0.1483679032152518</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.282236033595535</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0877295590170052</v>
+        <v>0.3285714410437072</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1517298878973996</v>
+        <v>0.3891925253607578</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351056</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1517298771654324</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4689014444451284</v>
+        <v>0.6961645651191976</v>
       </c>
       <c r="C37" t="n">
-        <v>1.157914172119838</v>
+        <v>0.2467504799971076</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9728613648227279</v>
+        <v>0.05708495488369503</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4497013834291555</v>
+        <v>0.650728237519354</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7024212280661509</v>
+        <v>0.2264869862366487</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1009266049731918</v>
+        <v>0.1227847762439971</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.578450124934893</v>
+        <v>0.6516876146164504</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5105939389403877</v>
+        <v>0.1746264579591915</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3361981450407688</v>
+        <v>0.1736859274243579</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5583427850506929</v>
+        <v>0.6946191715140745</v>
       </c>
       <c r="C40" t="n">
-        <v>0.721140908149329</v>
+        <v>0.1988558180131267</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4122503015139612</v>
+        <v>0.1065250104727991</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07742760074499333</v>
+        <v>0.2728878587474557</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1234348983694435</v>
+        <v>0.3218331444527209</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1965684480636746</v>
+        <v>0.4052789967998236</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1214903953779028</v>
+        <v>0.3182618453884337</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.02499464942121311</v>
+        <v>0.3127783644445826</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1520883408180982</v>
+        <v>0.3689597901669837</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.777155018105993</v>
+        <v>0.6689933088821127</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4241780257346284</v>
+        <v>0.1329018662068984</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.264953996608581</v>
+        <v>0.198104824910989</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5286657969319899</v>
+        <v>0.6637108163632863</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6213985905589416</v>
+        <v>0.2003293476634934</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1122748138094926</v>
+        <v>0.1359598359732201</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3513352902348389</v>
+        <v>0.4862050638694025</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2478243483259145</v>
+        <v>0.2476733784095315</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1522597312335839</v>
+        <v>0.266121557721066</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4354091758384248</v>
+        <v>0.6427705093306485</v>
       </c>
       <c r="C46" t="n">
-        <v>0.688921964637268</v>
+        <v>0.2303394440905334</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07106580071035637</v>
+        <v>0.1268900465788181</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3875705955871879</v>
+        <v>0.6316335154078232</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7903381659163553</v>
+        <v>0.2695788507904642</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6822935430819286</v>
+        <v>0.09878763380171242</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.159684624635329</v>
+        <v>0.1915754825107435</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2485314441369335</v>
+        <v>0.4182702433658501</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1785549687965599</v>
+        <v>0.390154274123406</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5632625868857501</v>
+        <v>0.6880663212934708</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6778771699954941</v>
+        <v>0.1995251104753295</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4927673738900197</v>
+        <v>0.1124085682311997</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4567867438940598</v>
+        <v>0.6305814566143362</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5826150050329354</v>
+        <v>0.2160139152818935</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.09494337481533252</v>
+        <v>0.1534046281037702</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6557972680539277</v>
+        <v>0.6331256315965013</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4001734238459533</v>
+        <v>0.1525697504207781</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.4680732104685331</v>
+        <v>0.2143046179827205</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0165089362266909</v>
+        <v>0.352150327443679</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1690884740648255</v>
+        <v>0.3732193322089594</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2339716374759212</v>
+        <v>0.2746303403473617</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05461995785041385</v>
+        <v>0.300876024603949</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.02914226018405503</v>
+        <v>0.3345257756046064</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.09376217642687792</v>
+        <v>0.3645981997914445</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03356677983673863</v>
+        <v>0.2523723246332599</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1642642920313903</v>
+        <v>0.3334676424024053</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1721435152302936</v>
+        <v>0.4141600329643347</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.148806950839306</v>
+        <v>0.9178653308430051</v>
       </c>
       <c r="C55" t="n">
-        <v>1.421228714368556</v>
+        <v>0.06182559199556265</v>
       </c>
       <c r="D55" t="n">
-        <v>0.802770437668053</v>
+        <v>0.02030907716143222</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3417218320851363</v>
+        <v>0.4000543081976282</v>
       </c>
       <c r="C56" t="n">
-        <v>0.05054279148918144</v>
+        <v>0.2379793677106291</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.39622521474399</v>
+        <v>0.3619663240917427</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5232238495068614</v>
+        <v>0.5823686474145529</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3583402690030064</v>
+        <v>0.1863146811867974</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.4182511336750164</v>
+        <v>0.2313166713986496</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5344922647872259</v>
+        <v>0.6583567755493438</v>
       </c>
       <c r="C58" t="n">
-        <v>0.583448787787037</v>
+        <v>0.191301756980286</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.1594464048889315</v>
+        <v>0.15034146747037</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03505473487123828</v>
+        <v>0.2377219417023516</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2106183443959277</v>
+        <v>0.3269073281306312</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.2449444787320363</v>
+        <v>0.4353707301670171</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.04704566034289</v>
+        <v>0.8740493883976688</v>
       </c>
       <c r="C60" t="n">
-        <v>1.014173007751737</v>
+        <v>0.07270080567419522</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1581928468147673</v>
+        <v>0.05324980592813591</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6246287455419927</v>
+        <v>0.7308422694694943</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7900234105962557</v>
+        <v>0.1687534291907603</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0001797655916727925</v>
+        <v>0.1004043013397456</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.346679364177537</v>
+        <v>0.582164380009749</v>
       </c>
       <c r="C62" t="n">
-        <v>0.579928773070074</v>
+        <v>0.2716669567552589</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3489302646348357</v>
+        <v>0.1461686632349919</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.09217929838646557</v>
+        <v>0.2974630346563153</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.0633709770994908</v>
+        <v>0.3196103765954987</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.165561733659868</v>
+        <v>0.3829265887481858</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02417126877961841</v>
+        <v>0.1778889229457937</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.3870100965127633</v>
+        <v>0.3239667894473535</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.420651405734792</v>
+        <v>0.4981442876068528</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3872347181964179</v>
+        <v>0.1169189126176935</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.4532867728471868</v>
+        <v>0.4427620632200179</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0398457361290252</v>
+        <v>0.4403190241622885</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.085158066042912</v>
+        <v>0.01932962732744986</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.130473562447537</v>
+        <v>0.410688845191934</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.4467156567000327</v>
+        <v>0.5699815274806164</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03403098313680583</v>
+        <v>0.2665173525757484</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.1159239524298651</v>
+        <v>0.3357043450092572</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.1527792459674839</v>
+        <v>0.3977783024149943</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822265971914167</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.08775652445842851</v>
+        <v>0.3285697818701698</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.151754953850138</v>
+        <v>0.3892036209384133</v>
       </c>
       <c r="E68" t="n">
         <v>2</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.127301890909391</v>
+        <v>0.01397499166473631</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.462208787388183</v>
+        <v>0.4658495991579908</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.1529518141122753</v>
+        <v>0.5201754091772726</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.012366461409102</v>
+        <v>0.02204722966071941</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.129796411155249</v>
+        <v>0.4458356937283642</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.2418886409365952</v>
+        <v>0.5321170766109162</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.8023092544786771</v>
+        <v>0.04369771566335268</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.8065407116400016</v>
+        <v>0.4276103523562492</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.2896302388171963</v>
+        <v>0.5286919319803977</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.7111613030620371</v>
+        <v>0.03967561860792274</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.150300459427309</v>
+        <v>0.5183218426747578</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2302101076989013</v>
+        <v>0.442002538717319</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.5392864452328662</v>
+        <v>0.05487669889428839</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.8448727299385592</v>
+        <v>0.3373189422167925</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.7790220970805559</v>
+        <v>0.6078043588889189</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.4170361338263975</v>
+        <v>0.1257776245957115</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.3700045192509686</v>
+        <v>0.4412735312257536</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02171589588168887</v>
+        <v>0.4329488441785347</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.7760840104458976</v>
+        <v>0.08967456357687101</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.276852921376365</v>
+        <v>0.604724010083181</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8641314280117173</v>
+        <v>0.3056014263399479</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.09143587838718</v>
+        <v>0.09347312093718951</v>
       </c>
       <c r="C76" t="n">
-        <v>0.146355652132648</v>
+        <v>0.6847184417357262</v>
       </c>
       <c r="D76" t="n">
-        <v>1.104083420274072</v>
+        <v>0.2218084373270842</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.198156415188871</v>
+        <v>0.2111648767041226</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1346151917438111</v>
+        <v>0.4233609949937744</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1824294550320203</v>
+        <v>0.3654741283021031</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.186679252282891</v>
+        <v>0.05208914718210317</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.3525330875009209</v>
+        <v>0.6520738138559312</v>
       </c>
       <c r="D78" t="n">
-        <v>1.004886225263877</v>
+        <v>0.2958370389619654</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.987265352788427</v>
+        <v>0.03003921811649636</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.9321196144731866</v>
+        <v>0.5461243015600227</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3384000090120136</v>
+        <v>0.4238364803234813</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.4948860991736949</v>
+        <v>0.1126881265396586</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.386634099309817</v>
+        <v>0.4751398051315917</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1843912304254386</v>
+        <v>0.41217206832875</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.5521315029973776</v>
+        <v>0.04407621412377441</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.146958390595245</v>
+        <v>0.3979446718459082</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4269006758925944</v>
+        <v>0.5579791140303175</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.3287389006014461</v>
+        <v>0.1686394847358386</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.2087984884605395</v>
+        <v>0.5089586024647471</v>
       </c>
       <c r="D82" t="n">
-        <v>0.652838118887924</v>
+        <v>0.3224019127994142</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.5642614020873137</v>
+        <v>0.035676453849697</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.387980719733677</v>
+        <v>0.3625686483604995</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.6561753689392479</v>
+        <v>0.6017548977898035</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.8124742802147767</v>
+        <v>0.08059490962554046</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.3404648973973918</v>
+        <v>0.5892673369691662</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7358561084215788</v>
+        <v>0.3301377534052936</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.7442339447088773</v>
+        <v>0.07803908482253434</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.4170023099074597</v>
+        <v>0.6041803428510421</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8550464932261711</v>
+        <v>0.3177805723264236</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.004363792055838339</v>
+        <v>0.264622505995715</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.1022631779708226</v>
+        <v>0.345163103455109</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1223626508106026</v>
+        <v>0.390214390549176</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9589736110889091</v>
+        <v>0.04597458859540481</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.5972149584973596</v>
+        <v>0.6308511111717926</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8914636032185231</v>
+        <v>0.3231743002328026</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.296551878300342</v>
+        <v>0.2535316292851683</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2929332321749129</v>
+        <v>0.5577896455633373</v>
       </c>
       <c r="D88" t="n">
-        <v>1.089782652556983</v>
+        <v>0.188678725151494</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.064019947713351</v>
+        <v>0.04129377223272976</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.5622760739629989</v>
+        <v>0.6897675458706671</v>
       </c>
       <c r="D89" t="n">
-        <v>1.257127679795647</v>
+        <v>0.268938681896603</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.3301003334258001</v>
+        <v>0.1080136799155287</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.5595309445347743</v>
+        <v>0.4062829628465355</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.1819188982542855</v>
+        <v>0.4857033572379357</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.7737915439164025</v>
+        <v>0.03767959744854999</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.9412805702871868</v>
+        <v>0.4068170561031927</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4179950417892085</v>
+        <v>0.5555033464482575</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.2155261302528058</v>
+        <v>0.1691965110419013</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.3052173232247202</v>
+        <v>0.4026918495541437</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.03329978738513155</v>
+        <v>0.428111639403955</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.5893585778886774</v>
+        <v>0.07713266513400079</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.6216346580163539</v>
+        <v>0.586482599001686</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7889181844115538</v>
+        <v>0.3363847358643132</v>
       </c>
       <c r="E93" t="n">
         <v>2</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.4287820019991994</v>
+        <v>0.2011981199456601</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1586101663532608</v>
+        <v>0.5711404610290625</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9369811390688946</v>
+        <v>0.2276614190252772</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.348628898011411</v>
+        <v>0.02124954724549896</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.8503111278387085</v>
+        <v>0.5897359738441632</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5498114216291132</v>
+        <v>0.389014478910338</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.7324608882729833</v>
+        <v>0.0617532303192407</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.6290366531120263</v>
+        <v>0.5719110111776591</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6084584921113828</v>
+        <v>0.3663357585031002</v>
       </c>
       <c r="E96" t="n">
         <v>3</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2820428575276629</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.08828158191811382</v>
+        <v>0.3285374822950716</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.1522430928133776</v>
+        <v>0.3894196601772656</v>
       </c>
       <c r="E97" t="n">
         <v>3</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.9937627502929245</v>
+        <v>0.02976562916596654</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.9178923474460925</v>
+        <v>0.4757813336265471</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.0573659010298862</v>
+        <v>0.4944530372074863</v>
       </c>
       <c r="E98" t="n">
         <v>3</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0621022385428369</v>
+        <v>0.2822360376351055</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541356</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.1517298771654323</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E99" t="n">
         <v>3</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.06210223854283659</v>
+        <v>0.2822353877899436</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.08773140446374657</v>
+        <v>0.3285713274716457</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1517316035729435</v>
+        <v>0.3891932847384106</v>
       </c>
       <c r="E100" t="n">
         <v>3</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02024209259932399</v>
+        <v>0.2793136340889356</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.06869814081071592</v>
+        <v>0.3426806258737465</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.102832910201809</v>
+        <v>0.3780057400373177</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.06210223854122639</v>
+        <v>0.2822360376347561</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417546635</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1517298771638218</v>
+        <v>0.3891925206105803</v>
       </c>
       <c r="E102" t="n">
         <v>3</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.8440891056062731</v>
+        <v>0.1136555370111625</v>
       </c>
       <c r="C103" t="n">
-        <v>0.02106839769978552</v>
+        <v>0.6274855672934523</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9256529465355553</v>
+        <v>0.2588588956953854</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.414896121966488</v>
+        <v>0.1442360996127157</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.2695114320469953</v>
+        <v>0.427691714914654</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.05857287434118202</v>
+        <v>0.4280721854726304</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1494310679340546</v>
+        <v>0.3154123542052311</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04869018025588033</v>
+        <v>0.300776867356959</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.2211683103650133</v>
+        <v>0.3838107784378101</v>
       </c>
       <c r="E105" t="n">
         <v>3</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.06210223822489877</v>
+        <v>0.2804010869394928</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.09297361068543579</v>
+        <v>0.3282497565608887</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.1566072575741666</v>
+        <v>0.3913491564996185</v>
       </c>
       <c r="E106" t="n">
         <v>3</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.7637436831248563</v>
+        <v>0.09867229009338033</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.2518778453652735</v>
+        <v>0.5474375776250876</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5004588942169246</v>
+        <v>0.3538901322815323</v>
       </c>
       <c r="E107" t="n">
         <v>3</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1001354844385541</v>
+        <v>0.370788020681764</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6718271429998373</v>
+        <v>0.4862642974757049</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7830556702459621</v>
+        <v>0.1429476818425308</v>
       </c>
       <c r="E108" t="n">
         <v>3</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.2208915565168518</v>
+        <v>0.1538972512597564</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.3723699685139174</v>
+        <v>0.3902389296729782</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.1488776665759182</v>
+        <v>0.4558638190672653</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3220755996302955</v>
+        <v>0.3255670007714584</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1088293344709215</v>
+        <v>0.2519618203394403</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.3409633253024285</v>
+        <v>0.4224711788891014</v>
       </c>
       <c r="E110" t="n">
         <v>3</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09076471142238346</v>
+        <v>0.2522904170155431</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.1966264860322026</v>
+        <v>0.3122527141767246</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.2682273040631522</v>
+        <v>0.4354568688077324</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.06010443102061014</v>
+        <v>0.2773329004787628</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.1003716850980102</v>
+        <v>0.3277909407858427</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1687268041852191</v>
+        <v>0.3948761587353945</v>
       </c>
       <c r="E112" t="n">
         <v>3</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.04727425225059941</v>
+        <v>0.1994182147656976</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.2939089050730784</v>
+        <v>0.3450438505314986</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.2514971632520681</v>
+        <v>0.4555379347028038</v>
       </c>
       <c r="E113" t="n">
         <v>3</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.9502195569537644</v>
+        <v>0.09983526906207575</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.002724250100089087</v>
+        <v>0.6398106477299056</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9556542443636279</v>
+        <v>0.2603540832080186</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.3798305863530133</v>
+        <v>0.08419809884153222</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.6933001909013267</v>
+        <v>0.3739456512086666</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.4546378299883735</v>
+        <v>0.5418562499498015</v>
       </c>
       <c r="E115" t="n">
         <v>3</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8820160727371762</v>
+        <v>0.04149654749689173</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.7900152775757233</v>
+        <v>0.5905502923962845</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6390851377981496</v>
+        <v>0.3679531601068237</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.8259599930826964</v>
+        <v>0.06147885379701194</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.5154302859233085</v>
+        <v>0.636231004347957</v>
       </c>
       <c r="D117" t="n">
-        <v>1.000944994612699</v>
+        <v>0.3022901418550307</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.07029563257361544</v>
+        <v>0.1975953111463567</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.3557925985148362</v>
+        <v>0.2940684452180615</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.5313243004952037</v>
+        <v>0.5083362436355822</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.311415280866856</v>
+        <v>0.03015789062526917</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.5913236248221193</v>
+        <v>0.6897322854880438</v>
       </c>
       <c r="D119" t="n">
-        <v>1.194326833150777</v>
+        <v>0.2801098238866871</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.6448563756681541</v>
+        <v>0.163008810039962</v>
       </c>
       <c r="C120" t="n">
-        <v>0.536948863456983</v>
+        <v>0.6762122510852019</v>
       </c>
       <c r="D120" t="n">
-        <v>1.138729925788154</v>
+        <v>0.160778938874836</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1094391844027107</v>
+        <v>0.302202278812895</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.06010428538243855</v>
+        <v>0.3108900599935738</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.2181630999127221</v>
+        <v>0.3869076611935309</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.8199418780470592</v>
+        <v>0.05425330712170902</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.6452100505313574</v>
+        <v>0.5088767841906782</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1977163470594135</v>
+        <v>0.4368699086876128</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.5601928862018356</v>
+        <v>0.05597832008384429</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.9517098171043779</v>
+        <v>0.4845362904616528</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1051620304360977</v>
+        <v>0.4594853894545029</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.02747747303937383</v>
+        <v>0.1791633681522078</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.4038981110553229</v>
+        <v>0.3016966306113447</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.5418703223097762</v>
+        <v>0.5191400012364473</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.9749227649742622</v>
+        <v>0.06969416642180735</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.3440710588586844</v>
+        <v>0.5718755580476027</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5636101561228346</v>
+        <v>0.3584302755305901</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.2272729341833331</v>
+        <v>0.3080268301397081</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6166713641969787</v>
+        <v>0.5405361075343372</v>
       </c>
       <c r="D126" t="n">
-        <v>0.889318077960776</v>
+        <v>0.1514370623259549</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.05761273526752236</v>
+        <v>0.1716938551827381</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.4042511726866863</v>
+        <v>0.3521524881986489</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.2386532576725585</v>
+        <v>0.4761536566186131</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.2201847199449805</v>
+        <v>0.1728985187373822</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.2831739489593355</v>
+        <v>0.3943040878306897</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.09987755671359842</v>
+        <v>0.432797393431928</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.3001293478276525</v>
+        <v>0.1145342581587974</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.5243116007006461</v>
+        <v>0.3700528633604343</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.399707571784563</v>
+        <v>0.5154128784807683</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0547047229229151</v>
+        <v>0.2457174812539562</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.1969164280275104</v>
+        <v>0.322840775426182</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.240052180021625</v>
+        <v>0.431441743319862</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.1315419615040494</v>
+        <v>0.2186372484297362</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.1587538390477679</v>
+        <v>0.3873288635748559</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.01620422942808938</v>
+        <v>0.3940338879954077</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.7724455699812706</v>
+        <v>0.0607531591115352</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.5933949092653489</v>
+        <v>0.5235585285760477</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3031285235639235</v>
+        <v>0.415688312312417</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.7913908237782951</v>
+        <v>0.06565325342920961</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.5179333343495008</v>
+        <v>0.5716831485012221</v>
       </c>
       <c r="D133" t="n">
-        <v>0.603612126470814</v>
+        <v>0.3626635980695681</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.7675842276774208</v>
+        <v>0.1094501863731452</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1462284686587885</v>
+        <v>0.5657031522566873</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6015331302626276</v>
+        <v>0.3248466613701674</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.2872370143126182</v>
+        <v>0.1702764022946746</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.2412958595986229</v>
+        <v>0.4269291358845416</v>
       </c>
       <c r="D135" t="n">
-        <v>0.07006545392167302</v>
+        <v>0.4027944618207837</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.8585696380581691</v>
+        <v>0.03727913899267952</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.8975670618166089</v>
+        <v>0.5070440503134014</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1445559829094233</v>
+        <v>0.4556768106939192</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.2986597115529807</v>
+        <v>0.1764041598708737</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.2017221162427282</v>
+        <v>0.4357790803086032</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1265376268369656</v>
+        <v>0.3878167598205229</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.3149821646485769</v>
+        <v>0.1139547063000394</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.5187342482385401</v>
+        <v>0.3781282134233201</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.3542908496638159</v>
+        <v>0.5079170802766404</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.2098749913565805</v>
+        <v>0.1237506264669631</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.5459497993056744</v>
+        <v>0.3727965308072005</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.3042624150401368</v>
+        <v>0.5034528427258363</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.8042978336532255</v>
+        <v>0.07330818704460604</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.3966858588776547</v>
+        <v>0.6307556110742205</v>
       </c>
       <c r="D140" t="n">
-        <v>1.002465972563999</v>
+        <v>0.2959362018811734</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.7495392200615836</v>
+        <v>0.09893629129420467</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.2181954206779567</v>
+        <v>0.5938186863644883</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8037783136062503</v>
+        <v>0.307245022341307</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.1891645123416644</v>
+        <v>0.3172971782128114</v>
       </c>
       <c r="C142" t="n">
-        <v>0.416316299222046</v>
+        <v>0.4768755167806651</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4636669183440566</v>
+        <v>0.2058273050065234</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.757660517921907</v>
+        <v>0.145212606952843</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2674720678753749</v>
+        <v>0.6322386120862291</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8564190201955276</v>
+        <v>0.2225487809609277</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.4125859466686557</v>
+        <v>0.07956772747196222</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.740675464186046</v>
+        <v>0.4175411813952895</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1992650880141779</v>
+        <v>0.5028910911327479</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.7861724478980003</v>
+        <v>0.05073458775622</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.7243837094770947</v>
+        <v>0.5653407953133817</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5265772368372426</v>
+        <v>0.3839246169303984</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.5684935541755093</v>
+        <v>0.1862206888405622</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3621472247295516</v>
+        <v>0.6070550199785576</v>
       </c>
       <c r="D146" t="n">
-        <v>0.8063685081915857</v>
+        <v>0.2067242911808803</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.5034986387101753</v>
+        <v>0.09107404413812152</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.5568675721308293</v>
+        <v>0.5136120049298003</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3901435214336518</v>
+        <v>0.3953139509320781</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.7582196391614381</v>
+        <v>0.05499579385568419</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.7084940434584902</v>
+        <v>0.6176725026097781</v>
       </c>
       <c r="D148" t="n">
-        <v>0.8708871804969905</v>
+        <v>0.3273317035345377</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.4632405225912608</v>
+        <v>0.09782890674058652</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.5242254901863023</v>
+        <v>0.4531788082077154</v>
       </c>
       <c r="D149" t="n">
-        <v>0.03641141543861068</v>
+        <v>0.4489922850516981</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.2720427231753428</v>
+        <v>0.1483542513006562</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.3623653183402495</v>
+        <v>0.4098494422017566</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.05979024763486711</v>
+        <v>0.441796306497587</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.7775960149771767</v>
+        <v>0.06769068562931396</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.4850540790712902</v>
+        <v>0.646688307565971</v>
       </c>
       <c r="D151" t="n">
-        <v>1.106256877232516</v>
+        <v>0.2856210068047148</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.9605169503872699</v>
+        <v>0.07502198618990853</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.2791531351949308</v>
+        <v>0.5967166408492636</v>
       </c>
       <c r="D152" t="n">
-        <v>0.721257522234539</v>
+        <v>0.3282613729608279</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.7980325118620449</v>
+        <v>0.06538310757971763</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.5002432142875697</v>
+        <v>0.6199477560701541</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9107528771492633</v>
+        <v>0.3146691363501283</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.3889465636262189</v>
+        <v>0.07237382761206314</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.8441759104897403</v>
+        <v>0.3942469428155029</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.3484687932239997</v>
+        <v>0.5333792295724338</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351056</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.1517298771654324</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351056</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1517298771654324</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.06195913108926748</v>
+        <v>0.2822049842847023</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.08772954544051563</v>
+        <v>0.3286183501658853</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1515867678045972</v>
+        <v>0.3891766655494125</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.9311080494111951</v>
+        <v>0.01669550026912979</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.594004978675506</v>
+        <v>0.3823386555891641</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.6093776369615288</v>
+        <v>0.6009658441417063</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.1476430106722734</v>
+        <v>0.102672024644181</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.7014974268334685</v>
+        <v>0.3091368156412141</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.7412565823083744</v>
+        <v>0.5881911597146049</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.3788115945506189</v>
+        <v>0.09415807046372833</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.6147385138654753</v>
+        <v>0.3921457928477485</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.3217726473610242</v>
+        <v>0.5136961366885233</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.5403081922872537</v>
+        <v>0.06156502804351995</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.8384018767252885</v>
+        <v>0.4469205569794033</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.09823073907388616</v>
+        <v>0.4915144149770767</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.4599439126470428</v>
+        <v>0.1033860267885825</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.4805567078093407</v>
+        <v>0.4302662675954215</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1009864329973106</v>
+        <v>0.466347705615996</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351056</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1517298771654324</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.06712556382064672</v>
+        <v>0.1359127467883562</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.5641799928651182</v>
+        <v>0.3295864333680532</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.4755690484544448</v>
+        <v>0.5345008198435907</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.02641948962578873</v>
+        <v>0.1604166554542123</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.4900848556033298</v>
+        <v>0.3098095909047557</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.4952304533691967</v>
+        <v>0.5297737536410322</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.05610080961053927</v>
+        <v>0.2696015068289442</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.120220887890107</v>
+        <v>0.3280053667040773</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.1818669443651283</v>
+        <v>0.4023931264669782</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.8251085015305893</v>
+        <v>0.06452531501667209</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.4904233351291752</v>
+        <v>0.6018209652489176</v>
       </c>
       <c r="D167" t="n">
-        <v>0.7832755677986385</v>
+        <v>0.3336537197344103</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.1255092710237951</v>
+        <v>0.1702672640849464</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.3590588563306751</v>
+        <v>0.3530491393492459</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.3154236582634893</v>
+        <v>0.4766835965658076</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.9373645192756752</v>
+        <v>0.03478907232807999</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.8978695265253751</v>
+        <v>0.5909214066753357</v>
       </c>
       <c r="D169" t="n">
-        <v>0.615860041085171</v>
+        <v>0.3742895209965842</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.02831325021154694</v>
+        <v>0.2347189694862772</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.1814298292700043</v>
+        <v>0.3489147609064916</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.1571606268016603</v>
+        <v>0.4163662696072313</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0599092716372062</v>
+        <v>0.281759816645945</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.08772954237000959</v>
+        <v>0.3292904392077417</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1495369054551071</v>
+        <v>0.3889497441463131</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.9912724525054049</v>
+        <v>0.03879725240648939</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.7273036826251962</v>
+        <v>0.5612325984981358</v>
       </c>
       <c r="D172" t="n">
-        <v>0.448111808097501</v>
+        <v>0.399970149095375</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.05879258008905018</v>
+        <v>0.2789430878804571</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.09511379330589659</v>
+        <v>0.3292010076551561</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.155283995914657</v>
+        <v>0.3918559044643867</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.04043920449691585</v>
+        <v>0.1910385207067892</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.3699900857451831</v>
+        <v>0.3095733473384538</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.441935726126457</v>
+        <v>0.4993881319547569</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.02411311166301596</v>
+        <v>0.1853823521459556</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.3618004111731634</v>
+        <v>0.3352629152544564</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.3169414217165416</v>
+        <v>0.4793547325995876</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.1646110219059136</v>
+        <v>0.164565269576226</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.3599634040702941</v>
+        <v>0.3685792801740025</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.2433206992022272</v>
+        <v>0.4668554502497713</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351056</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.1517298771654324</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.009906640403323674</v>
+        <v>0.2370033242251121</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.1981272192800109</v>
+        <v>0.3355813744875073</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.2096970340655121</v>
+        <v>0.4274153012873804</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.06210223854282366</v>
+        <v>0.2822360375029213</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.08772954785130788</v>
+        <v>0.3285714417309271</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.1517298775162173</v>
+        <v>0.3891925207661517</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.06210223854283402</v>
+        <v>0.282110762234739</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.08808753221225921</v>
+        <v>0.3285494036900953</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.1520628304136284</v>
+        <v>0.3893398340751658</v>
       </c>
       <c r="E180" t="n">
         <v>6</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.333844139364545</v>
+        <v>0.0445610141842382</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.4104009085967609</v>
+        <v>0.6405650399787973</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9070292070087292</v>
+        <v>0.3148739458369646</v>
       </c>
       <c r="E181" t="n">
         <v>6</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.06209972237400497</v>
+        <v>0.2822354916597037</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.08772954747310042</v>
+        <v>0.3285722665077467</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.151727360899946</v>
+        <v>0.3891922418325495</v>
       </c>
       <c r="E182" t="n">
         <v>6</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.05555823006529388</v>
+        <v>0.2728353815493536</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.110710233400515</v>
+        <v>0.3292899713224117</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.1666979668733565</v>
+        <v>0.3978746471282348</v>
       </c>
       <c r="E183" t="n">
         <v>6</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.06397050916695371</v>
+        <v>0.2834281008576499</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.08548337037596333</v>
+        <v>0.3280871991409229</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.1516189322607042</v>
+        <v>0.3884847000014274</v>
       </c>
       <c r="E184" t="n">
         <v>6</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.06145309475297137</v>
+        <v>0.2822009524527094</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.08742751437622112</v>
+        <v>0.3288051671926632</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1507743517381058</v>
+        <v>0.3889938803546274</v>
       </c>
       <c r="E185" t="n">
         <v>6</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02078817463239818</v>
+        <v>0.1307744993798937</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.6321239128783323</v>
+        <v>0.2964324438544505</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.6494941581915381</v>
+        <v>0.5727930567656561</v>
       </c>
       <c r="E186" t="n">
         <v>6</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02343824967692029</v>
+        <v>0.1700242155149887</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.4428850902690783</v>
+        <v>0.3074099121939416</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.5076345580686048</v>
+        <v>0.5225658722910698</v>
       </c>
       <c r="E187" t="n">
         <v>6</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.009163451477390082</v>
+        <v>0.2522555325058222</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.1432442962167687</v>
+        <v>0.3415503763832152</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.1578685100358086</v>
+        <v>0.4061940911109627</v>
       </c>
       <c r="E188" t="n">
         <v>6</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.3629277437741072</v>
+        <v>0.1281158291409286</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.3986876318331954</v>
+        <v>0.4072919205104968</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.1707350294923966</v>
+        <v>0.4645922503485744</v>
       </c>
       <c r="E189" t="n">
         <v>6</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.7910340469872593</v>
+        <v>0.04862664845204359</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.7618345357083804</v>
+        <v>0.5252606226226809</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2848308708576508</v>
+        <v>0.4261127289252756</v>
       </c>
       <c r="E190" t="n">
         <v>6</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.4557835398186755</v>
+        <v>0.10509628418456</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.4722330893238504</v>
+        <v>0.433317559144916</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.07703281845335995</v>
+        <v>0.4615861566705239</v>
       </c>
       <c r="E191" t="n">
         <v>6</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02909268283151004</v>
+        <v>0.2020665093041589</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.3255363801036167</v>
+        <v>0.3176576512347541</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.3748532156593682</v>
+        <v>0.480275839461087</v>
       </c>
       <c r="E192" t="n">
         <v>6</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1044219277121546</v>
+        <v>0.2811032376704957</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.1146831548309032</v>
+        <v>0.3106857963716709</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.2489995090901726</v>
+        <v>0.4082109659578333</v>
       </c>
       <c r="E193" t="n">
         <v>6</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.7163318552924101</v>
+        <v>0.08083428291598398</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.409860795836393</v>
+        <v>0.6226611799812477</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9993786534394601</v>
+        <v>0.2965045371027684</v>
       </c>
       <c r="E194" t="n">
         <v>6</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.835648619965628</v>
+        <v>0.03445618126146247</v>
       </c>
       <c r="C195" t="n">
-        <v>-1.036680428471639</v>
+        <v>0.529828615552441</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2683330715216119</v>
+        <v>0.4357152031860966</v>
       </c>
       <c r="E195" t="n">
         <v>6</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.036253217566357</v>
+        <v>0.03555703036349722</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.7534545237311265</v>
+        <v>0.5477145721097666</v>
       </c>
       <c r="D196" t="n">
-        <v>0.35884752383378</v>
+        <v>0.416728397526736</v>
       </c>
       <c r="E196" t="n">
         <v>6</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.5156004372332701</v>
+        <v>0.05984144281213499</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.8555151217890824</v>
+        <v>0.3998675723670982</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.3772985543444809</v>
+        <v>0.5402909848207669</v>
       </c>
       <c r="E197" t="n">
         <v>6</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.6423704627474605</v>
+        <v>0.08589680663712038</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.458982009413</v>
+        <v>0.5230267667111331</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3839689247810332</v>
+        <v>0.3910764266517463</v>
       </c>
       <c r="E198" t="n">
         <v>6</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.8388591617014085</v>
+        <v>0.08647739495121382</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.3060648840402921</v>
+        <v>0.5371389009610976</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4030788085743305</v>
+        <v>0.3763837040876888</v>
       </c>
       <c r="E199" t="n">
         <v>6</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.8691489633724947</v>
+        <v>0.05937327002525344</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.5135580389825758</v>
+        <v>0.5751993125685083</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5924264058116809</v>
+        <v>0.3654274174062379</v>
       </c>
       <c r="E200" t="n">
         <v>6</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351054</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.08772954747358054</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.1517298771654328</v>
+        <v>0.389192520610759</v>
       </c>
       <c r="E201" t="n">
         <v>6</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.8879042202282865</v>
+        <v>0.02635671703317756</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.213544063314782</v>
+        <v>0.4860446987093905</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.002706431556236621</v>
+        <v>0.4875985842574318</v>
       </c>
       <c r="E202" t="n">
         <v>6</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.9203427915063738</v>
+        <v>0.02659976080508222</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.079493353306598</v>
+        <v>0.4363923249553243</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.2811164026566727</v>
+        <v>0.5370079142395934</v>
       </c>
       <c r="E203" t="n">
         <v>6</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.08871486271228414</v>
+        <v>0.2754332799914117</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.1225715395218671</v>
+        <v>0.3181142013248722</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.208660267243229</v>
+        <v>0.4064525186837159</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351056</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.1517298771654324</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351056</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.1517298771654324</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.06210223425148357</v>
+        <v>0.2822360378966023</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.08772954406339788</v>
+        <v>0.328571443361809</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.1517298698012403</v>
+        <v>0.3891925187415887</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351056</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1517298771654324</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2822360376351056</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.0877295474735801</v>
+        <v>0.3285714417541355</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.1517298771654324</v>
+        <v>0.3891925206107588</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.06210281968472596</v>
+        <v>0.2822150445603599</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.08778989332889556</v>
+        <v>0.3285675200258295</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.1517867557796293</v>
+        <v>0.3892174354138108</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.06210223738352923</v>
+        <v>0.2822360350116067</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.08772955425214783</v>
+        <v>0.328571441719243</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.1517298822827996</v>
+        <v>0.3891925232691503</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.06210222319812014</v>
+        <v>0.2822360343008667</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.0877295474868264</v>
+        <v>0.3285714467829785</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.1517298618330481</v>
+        <v>0.3891925189161548</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4139454134402161</v>
+        <v>0.5310435579430911</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3152266320872719</v>
+        <v>0.2346116850579009</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.02826191350197541</v>
+        <v>0.2343447569990079</v>
       </c>
       <c r="E213" t="n">
         <v>8</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9216753087172301</v>
+        <v>0.8679279296696265</v>
       </c>
       <c r="C214" t="n">
-        <v>1.280210069269344</v>
+        <v>0.09785243318231676</v>
       </c>
       <c r="D214" t="n">
-        <v>0.414378254768176</v>
+        <v>0.03421963714805663</v>
       </c>
       <c r="E214" t="n">
         <v>8</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.7795672899173418</v>
+        <v>0.8166615022518432</v>
       </c>
       <c r="C215" t="n">
-        <v>1.099024985311372</v>
+        <v>0.1359597317512377</v>
       </c>
       <c r="D215" t="n">
-        <v>0.736623194804558</v>
+        <v>0.04737876599691908</v>
       </c>
       <c r="E215" t="n">
         <v>8</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.4342479480653435</v>
+        <v>0.6228968356100447</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6022522105877374</v>
+        <v>0.2419868058861802</v>
       </c>
       <c r="D216" t="n">
-        <v>0.4164591918965437</v>
+        <v>0.1351163585037752</v>
       </c>
       <c r="E216" t="n">
         <v>8</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.6627082979758748</v>
+        <v>0.7342695508160205</v>
       </c>
       <c r="C217" t="n">
-        <v>0.7361455927899501</v>
+        <v>0.1712002991154829</v>
       </c>
       <c r="D217" t="n">
-        <v>0.6601467110250915</v>
+        <v>0.09453015006849665</v>
       </c>
       <c r="E217" t="n">
         <v>8</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.064199862256699</v>
+        <v>0.8897109551982921</v>
       </c>
       <c r="C218" t="n">
-        <v>1.14387575978127</v>
+        <v>0.07428425733140914</v>
       </c>
       <c r="D218" t="n">
-        <v>0.6934054494203514</v>
+        <v>0.03600478747029852</v>
       </c>
       <c r="E218" t="n">
         <v>8</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.8829567204653949</v>
+        <v>0.8356880786879799</v>
       </c>
       <c r="C219" t="n">
-        <v>1.00244644406677</v>
+        <v>0.109748520084889</v>
       </c>
       <c r="D219" t="n">
-        <v>0.5409844423906364</v>
+        <v>0.05456340122713117</v>
       </c>
       <c r="E219" t="n">
         <v>8</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1694864370892531</v>
+        <v>0.514503071038632</v>
       </c>
       <c r="C220" t="n">
-        <v>0.7440514608021328</v>
+        <v>0.3869535767965445</v>
       </c>
       <c r="D220" t="n">
-        <v>1.264312929691631</v>
+        <v>0.09854335216482324</v>
       </c>
       <c r="E220" t="n">
         <v>8</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.223916903376989</v>
+        <v>0.921790780846534</v>
       </c>
       <c r="C221" t="n">
-        <v>1.266161941224303</v>
+        <v>0.05284947842419142</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6661930858365547</v>
+        <v>0.02535974072927475</v>
       </c>
       <c r="E221" t="n">
         <v>8</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.7427100679946661</v>
+        <v>0.1331382883327987</v>
       </c>
       <c r="C222" t="n">
-        <v>0.08690687757855368</v>
+        <v>0.621325065113378</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9347789915372028</v>
+        <v>0.2455366465538232</v>
       </c>
       <c r="E222" t="n">
         <v>8</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.378834024403103</v>
+        <v>0.1381551059815909</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.3299627803546373</v>
+        <v>0.4750238983077901</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2982060686643994</v>
+        <v>0.3868209957106191</v>
       </c>
       <c r="E223" t="n">
         <v>8</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.053889602322304</v>
+        <v>0.8366187370420685</v>
       </c>
       <c r="C224" t="n">
-        <v>0.7901777781904497</v>
+        <v>0.07913001106025638</v>
       </c>
       <c r="D224" t="n">
-        <v>0.04752321587720557</v>
+        <v>0.0842512518976752</v>
       </c>
       <c r="E224" t="n">
         <v>8</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.218938050966667</v>
+        <v>0.9201459325246633</v>
       </c>
       <c r="C225" t="n">
-        <v>1.250544258173132</v>
+        <v>0.05318382898510718</v>
       </c>
       <c r="D225" t="n">
-        <v>0.5828820632780835</v>
+        <v>0.02667023849022952</v>
       </c>
       <c r="E225" t="n">
         <v>8</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.7285017731036676</v>
+        <v>0.7924335102495337</v>
       </c>
       <c r="C226" t="n">
-        <v>1.003843610562154</v>
+        <v>0.1511989175171798</v>
       </c>
       <c r="D226" t="n">
-        <v>0.7812304940397913</v>
+        <v>0.05636757223328612</v>
       </c>
       <c r="E226" t="n">
         <v>8</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4739713744394043</v>
+        <v>0.6689541484833528</v>
       </c>
       <c r="C227" t="n">
-        <v>0.7738446130473636</v>
+        <v>0.2436204591249982</v>
       </c>
       <c r="D227" t="n">
-        <v>1.045669374146359</v>
+        <v>0.08742539239164893</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.6843501205976675</v>
+        <v>0.7896184047886821</v>
       </c>
       <c r="C228" t="n">
-        <v>1.16983466611466</v>
+        <v>0.1617008892531306</v>
       </c>
       <c r="D228" t="n">
-        <v>0.635880605977965</v>
+        <v>0.0486807059581872</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.8008249693797028</v>
+        <v>0.8301838853760153</v>
       </c>
       <c r="C229" t="n">
-        <v>1.213698052257663</v>
+        <v>0.1324437364779339</v>
       </c>
       <c r="D229" t="n">
-        <v>0.964140832431143</v>
+        <v>0.03737237814605077</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1996243822344201</v>
+        <v>0.3689810952035728</v>
       </c>
       <c r="C230" t="n">
-        <v>0.05798970997034612</v>
+        <v>0.29028844073502</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.1672945647449999</v>
+        <v>0.3407304640614076</v>
       </c>
       <c r="E230" t="n">
         <v>8</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.7862618059298644</v>
+        <v>0.7762026443541291</v>
       </c>
       <c r="C231" t="n">
-        <v>0.7665912270186269</v>
+        <v>0.1290680710274191</v>
       </c>
       <c r="D231" t="n">
-        <v>0.1103089614623058</v>
+        <v>0.09472928461845168</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.9883883873676188</v>
+        <v>0.8723791055286828</v>
       </c>
       <c r="C232" t="n">
-        <v>1.114419643413907</v>
+        <v>0.08519387824881486</v>
       </c>
       <c r="D232" t="n">
-        <v>0.4061371670945692</v>
+        <v>0.04242701622250224</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.6124497492883688</v>
+        <v>0.1205305402370831</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.2029245570272228</v>
+        <v>0.5466731351493412</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5851339931593087</v>
+        <v>0.3327963246135757</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.5871710267367602</v>
+        <v>0.7447691011958694</v>
       </c>
       <c r="C234" t="n">
-        <v>1.053058241928992</v>
+        <v>0.1934894138210474</v>
       </c>
       <c r="D234" t="n">
-        <v>0.6290382215267382</v>
+        <v>0.06174148498308328</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.8917124276206139</v>
+        <v>0.8586972020901283</v>
       </c>
       <c r="C235" t="n">
-        <v>1.269576409366887</v>
+        <v>0.1092142991388509</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9011846769612341</v>
+        <v>0.03208849877102114</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2934304698441872</v>
+        <v>0.2549520393990955</v>
       </c>
       <c r="C236" t="n">
-        <v>0.2609610326710585</v>
+        <v>0.529978230399209</v>
       </c>
       <c r="D236" t="n">
-        <v>0.8205750898443841</v>
+        <v>0.2150697302016956</v>
       </c>
       <c r="E236" t="n">
         <v>8</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.112077035952698</v>
+        <v>0.2705030623913651</v>
       </c>
       <c r="C237" t="n">
-        <v>0.02101848072234765</v>
+        <v>0.4307047665383666</v>
       </c>
       <c r="D237" t="n">
-        <v>0.4537756177859912</v>
+        <v>0.2987921710702682</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.2046465883655107</v>
+        <v>0.2215073362205551</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.08033432822447018</v>
+        <v>0.4283242786478481</v>
       </c>
       <c r="D238" t="n">
-        <v>0.2049452308504602</v>
+        <v>0.3501683851315967</v>
       </c>
       <c r="E238" t="n">
         <v>8</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.2795734401746026</v>
+        <v>0.1991605418436129</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.1094311388980085</v>
+        <v>0.4751656924992357</v>
       </c>
       <c r="D239" t="n">
-        <v>0.4829987359715494</v>
+        <v>0.3256737656571518</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.9930410577691204</v>
+        <v>0.8783596875754985</v>
       </c>
       <c r="C240" t="n">
-        <v>1.22082446921901</v>
+        <v>0.0890996456375064</v>
       </c>
       <c r="D240" t="n">
-        <v>0.8086683340276265</v>
+        <v>0.03254066678699487</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.06210223854283693</v>
+        <v>0.2819039491852353</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.08867853232157634</v>
+        <v>0.3285130676340517</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.1526122681095108</v>
+        <v>0.3895829831807125</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1229188750093848</v>
+        <v>0.3796287250269531</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1444845095034186</v>
+        <v>0.3471964286345512</v>
       </c>
       <c r="D242" t="n">
-        <v>0.3434279525746959</v>
+        <v>0.2731748463384954</v>
       </c>
       <c r="E242" t="n">
         <v>9</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.08279380638713085</v>
+        <v>0.4812268590229132</v>
       </c>
       <c r="C243" t="n">
-        <v>0.9466144125093382</v>
+        <v>0.4155808497793637</v>
       </c>
       <c r="D243" t="n">
-        <v>0.8106737998132529</v>
+        <v>0.1031922911977231</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.02183186912449765</v>
+        <v>0.3316616543691659</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1512874913798574</v>
+        <v>0.3994585618322361</v>
       </c>
       <c r="D244" t="n">
-        <v>0.3870262845539385</v>
+        <v>0.2688797837985977</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.39369234458744</v>
+        <v>0.4482497145413948</v>
       </c>
       <c r="C245" t="n">
-        <v>0.1300103200698457</v>
+        <v>0.2188222193870766</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.4832508047164861</v>
+        <v>0.3329280660715287</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.05703960846350939</v>
+        <v>0.2825098729956301</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.08378025901363279</v>
+        <v>0.3304816980964597</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1429632508245809</v>
+        <v>0.3870084289079102</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.3299332113390965</v>
+        <v>0.2690265703328164</v>
       </c>
       <c r="C247" t="n">
-        <v>0.7081312673882718</v>
+        <v>0.5835370409384566</v>
       </c>
       <c r="D247" t="n">
-        <v>0.9037125378702876</v>
+        <v>0.1474363887287271</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.2558756369038421</v>
+        <v>0.4329359125092783</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1827993243264189</v>
+        <v>0.2749203970036683</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.1552186084706514</v>
+        <v>0.2921436904870531</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.07108613945688122</v>
+        <v>0.2482408599143902</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.1017045578162837</v>
+        <v>0.3752754648771699</v>
       </c>
       <c r="D249" t="n">
-        <v>0.005274262922684819</v>
+        <v>0.3764836752084397</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.3575351418062378</v>
+        <v>0.2498348122809573</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5312110648369475</v>
+        <v>0.5914580036431377</v>
       </c>
       <c r="D250" t="n">
-        <v>1.037134737665121</v>
+        <v>0.158707184075905</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.2221812307026241</v>
+        <v>0.2663196501835038</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1617718096558995</v>
+        <v>0.4801111568513361</v>
       </c>
       <c r="D251" t="n">
-        <v>0.5904209531907019</v>
+        <v>0.2535691929651603</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.06216207244382917</v>
+        <v>0.2822644849399889</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.08768537507361757</v>
+        <v>0.3285546147078092</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.151747903622215</v>
+        <v>0.3891809003522017</v>
       </c>
       <c r="E252" t="n">
         <v>9</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.126014001373573</v>
+        <v>0.4480167572690812</v>
       </c>
       <c r="C253" t="n">
-        <v>0.3934138302569621</v>
+        <v>0.3552988701822583</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4275326817468869</v>
+        <v>0.1966843725486606</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.06398094284138167</v>
+        <v>0.4528346124784474</v>
       </c>
       <c r="C254" t="n">
-        <v>0.6861075749820773</v>
+        <v>0.4219143010668168</v>
       </c>
       <c r="D254" t="n">
-        <v>0.8963863708085006</v>
+        <v>0.1252510864547358</v>
       </c>
       <c r="E254" t="n">
         <v>9</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.3345323831877748</v>
+        <v>0.1771944543762352</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.1603663584347501</v>
+        <v>0.4381287078777624</v>
       </c>
       <c r="D255" t="n">
-        <v>0.08873477647120209</v>
+        <v>0.3846768377460023</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.05866487739940159</v>
+        <v>0.2814972833337214</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.08770650356680032</v>
+        <v>0.3297000481127237</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.148270901774952</v>
+        <v>0.3888026685535551</v>
       </c>
       <c r="E256" t="n">
         <v>9</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.2827954126179377</v>
+        <v>0.1543906495015112</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.3251443900416797</v>
+        <v>0.4348128102099723</v>
       </c>
       <c r="D257" t="n">
-        <v>0.1189480950730697</v>
+        <v>0.4107965402885164</v>
       </c>
       <c r="E257" t="n">
         <v>9</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.8234390009972583</v>
+        <v>0.0602119808745191</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.5340055259624493</v>
+        <v>0.6415854191922827</v>
       </c>
       <c r="D258" t="n">
-        <v>1.033762380473894</v>
+        <v>0.2982025999331981</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.1195776217039241</v>
+        <v>0.35753310894475</v>
       </c>
       <c r="C259" t="n">
-        <v>0.5789900640158687</v>
+        <v>0.4802254422919827</v>
       </c>
       <c r="D259" t="n">
-        <v>0.6649913762025583</v>
+        <v>0.1622414487632674</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1786146367463034</v>
+        <v>0.45726073082096</v>
       </c>
       <c r="C260" t="n">
-        <v>0.3407922738061342</v>
+        <v>0.3246748175200617</v>
       </c>
       <c r="D260" t="n">
-        <v>0.251128278709342</v>
+        <v>0.2180644516589781</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.2985634011769665</v>
+        <v>0.2259043898788575</v>
       </c>
       <c r="C261" t="n">
-        <v>0.04665527812444324</v>
+        <v>0.4740798402536088</v>
       </c>
       <c r="D261" t="n">
-        <v>0.4043541505419103</v>
+        <v>0.3000157698675336</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.6203613047691001</v>
+        <v>0.1430720715779548</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.04026873404527875</v>
+        <v>0.5574316951912911</v>
       </c>
       <c r="D262" t="n">
-        <v>0.6387324095241952</v>
+        <v>0.2994962332307539</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.1996832044608949</v>
+        <v>0.321547746889381</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6431999928754589</v>
+        <v>0.5308911814810707</v>
       </c>
       <c r="D263" t="n">
-        <v>0.8769187961186117</v>
+        <v>0.1475610716295483</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.291034489404788</v>
+        <v>0.2436539435156432</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1742762114426314</v>
+        <v>0.5257479161489745</v>
       </c>
       <c r="D264" t="n">
-        <v>0.8432794398503565</v>
+        <v>0.2305981403353823</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.1267565636070532</v>
+        <v>0.3403201896477456</v>
       </c>
       <c r="C265" t="n">
-        <v>0.4197963919795483</v>
+        <v>0.4647760884641561</v>
       </c>
       <c r="D265" t="n">
-        <v>0.5702050865093666</v>
+        <v>0.1949037218880985</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.1557997510335828</v>
+        <v>0.4410348654012736</v>
       </c>
       <c r="C266" t="n">
-        <v>0.3144809929391651</v>
+        <v>0.3465978336361777</v>
       </c>
       <c r="D266" t="n">
-        <v>0.5049953902741268</v>
+        <v>0.2123673009625484</v>
       </c>
       <c r="E266" t="n">
         <v>9</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.1471309639776406</v>
+        <v>0.5025524697329797</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7191840262934774</v>
+        <v>0.3790621892777963</v>
       </c>
       <c r="D267" t="n">
-        <v>0.8284871247583686</v>
+        <v>0.1183853409892242</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.1896352656443445</v>
+        <v>0.3328323682002765</v>
       </c>
       <c r="C268" t="n">
-        <v>0.8120305120233124</v>
+        <v>0.5348721210346372</v>
       </c>
       <c r="D268" t="n">
-        <v>0.8628767200832114</v>
+        <v>0.1322955107650864</v>
       </c>
       <c r="E268" t="n">
         <v>9</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.4821655292626988</v>
+        <v>0.6456176682961872</v>
       </c>
       <c r="C269" t="n">
-        <v>0.6082057705911648</v>
+        <v>0.2089235343418974</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.07272003069243983</v>
+        <v>0.1454587973619152</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -5758,13 +5758,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.2148416892753975</v>
+        <v>0.2629030238678562</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.2154002019770802</v>
+        <v>0.2587871180947842</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.5769660749991714</v>
+        <v>0.4783098580373597</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -5778,13 +5778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.3004361483490215</v>
+        <v>0.217555045317013</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.006247895093965949</v>
+        <v>0.45647364148752</v>
       </c>
       <c r="D271" t="n">
-        <v>0.2780724503258762</v>
+        <v>0.3259713131954673</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -5798,13 +5798,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.3018596191639603</v>
+        <v>0.2556544416658895</v>
       </c>
       <c r="C272" t="n">
-        <v>0.2726130518897925</v>
+        <v>0.5224470153490525</v>
       </c>
       <c r="D272" t="n">
-        <v>0.7082445248749959</v>
+        <v>0.2218985429850579</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -5818,13 +5818,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1411659962547685</v>
+        <v>0.3665395511801217</v>
       </c>
       <c r="C273" t="n">
-        <v>0.08744425441188532</v>
+        <v>0.3109904064917174</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.06928703950159286</v>
+        <v>0.3224700423281606</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
